--- a/search met doorgerekende states+ de tijd.xlsx
+++ b/search met doorgerekende states+ de tijd.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daan\Desktop\RushHourGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="30">
   <si>
     <t>deptfirstsearch</t>
   </si>
@@ -106,6 +106,15 @@
   <si>
     <t>max length</t>
   </si>
+  <si>
+    <t>min lengte</t>
+  </si>
+  <si>
+    <t>min lengte depth-first</t>
+  </si>
+  <si>
+    <t>max lengte depth-first</t>
+  </si>
 </sst>
 </file>
 
@@ -152,6 +161,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF5FF006"/>
+      <color rgb="FFCC009B"/>
+      <color rgb="FFFFAFEC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -212,8 +228,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3099096675415573"/>
-          <c:y val="2.7777777777777776E-2"/>
+          <c:x val="0.47657633420822398"/>
+          <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -257,11 +273,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>Sheet1!$Q$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>min length</c:v>
+                  <c:v>min lengte depth-first</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -295,7 +311,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$4</c:f>
+              <c:f>Sheet1!$I$2:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -317,11 +333,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>Sheet1!$R$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>max length</c:v>
+                  <c:v>max lengte depth-first</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -355,7 +371,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$4</c:f>
+              <c:f>Sheet1!$J$2:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -382,11 +398,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="160037152"/>
-        <c:axId val="160034432"/>
+        <c:axId val="139788000"/>
+        <c:axId val="479416144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="160037152"/>
+        <c:axId val="139788000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -429,7 +445,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160034432"/>
+        <c:crossAx val="479416144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -437,7 +453,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160034432"/>
+        <c:axId val="479416144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -549,7 +565,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160037152"/>
+        <c:crossAx val="139788000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -712,18 +728,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$3</c:f>
+              <c:f>Sheet1!$P$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>min length</c:v>
+                  <c:v>min lengte</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="5FF006"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -733,41 +749,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$4:$K$7</c:f>
+              <c:f>Sheet1!$G$2:$G$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>bord 4</c:v>
+                  <c:v>bord 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>bord 5</c:v>
+                  <c:v>bord 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>bord 6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>bord 7</c:v>
+                  <c:v>bord 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$4:$L$7</c:f>
+              <c:f>Sheet1!$H$2:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1521</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1015</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5690</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4062</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -778,11 +788,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$3</c:f>
+              <c:f>Sheet1!$Q$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>max length</c:v>
+                  <c:v>min lengte depth-first</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -799,41 +809,98 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$4:$K$7</c:f>
+              <c:f>Sheet1!$G$2:$G$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>bord 4</c:v>
+                  <c:v>bord 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>bord 5</c:v>
+                  <c:v>bord 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>bord 6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>bord 7</c:v>
+                  <c:v>bord 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$4:$M$7</c:f>
+              <c:f>Sheet1!$I$2:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>26983</c:v>
+                  <c:v>752</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55571</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60589</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60895</c:v>
+                  <c:v>87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max lengte depth-first</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$2:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>bord 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bord 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bord 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1742</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -849,11 +916,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1181755072"/>
-        <c:axId val="1181757248"/>
+        <c:axId val="1002716512"/>
+        <c:axId val="1002698560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1181755072"/>
+        <c:axId val="1002716512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -896,7 +963,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1181757248"/>
+        <c:crossAx val="1002698560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -904,7 +971,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1181757248"/>
+        <c:axId val="1002698560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -945,11 +1012,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="nl-NL"/>
-                  <a:t>Lengte</a:t>
+                  <a:t>lengte</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="nl-NL" baseline="0"/>
-                  <a:t> van de oplossing</a:t>
+                  <a:t> oplossing</a:t>
                 </a:r>
                 <a:endParaRPr lang="nl-NL"/>
               </a:p>
@@ -1016,7 +1083,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1181755072"/>
+        <c:crossAx val="1002716512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1131,14 +1198,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="nl-NL" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Depth-first 10x gerund</a:t>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Depth-first search</a:t>
             </a:r>
-            <a:endParaRPr lang="nl-NL">
-              <a:effectLst/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t> 10x uitgevoerd</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1184,18 +1251,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>Sheet1!$P$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>min length</c:v>
+                  <c:v>min lengte</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="5FF006"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1205,35 +1272,32 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$G$2:$G$4</c:f>
+              <c:f>Sheet1!$O$4:$O$7</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>bord 1</c:v>
+                  <c:v>bord 4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>bord 2</c:v>
+                  <c:v>bord 5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>bord 3</c:v>
+                  <c:v>bord 6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bord 7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$4</c:f>
+              <c:f>Sheet1!$P$4:$P$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>752</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>87</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1244,11 +1308,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>Sheet1!$Q$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>max length</c:v>
+                  <c:v>min lengte depth-first</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1265,35 +1329,175 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$G$2:$G$4</c:f>
+              <c:f>Sheet1!$O$4:$O$7</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>bord 1</c:v>
+                  <c:v>bord 4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>bord 2</c:v>
+                  <c:v>bord 5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>bord 3</c:v>
+                  <c:v>bord 6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bord 7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$4</c:f>
+              <c:f>Sheet1!$Q$4:$Q$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1742</c:v>
+                  <c:v>1521</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>547</c:v>
+                  <c:v>1015</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>186</c:v>
+                  <c:v>5690</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max lengte depth-first</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$4:$O$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>bord 4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bord 5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bord 6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bord 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$R$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>26983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55571</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60589</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1309,11 +1513,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1173970304"/>
-        <c:axId val="1173971392"/>
+        <c:axId val="1002701824"/>
+        <c:axId val="1002707808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1173970304"/>
+        <c:axId val="1002701824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1356,7 +1560,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1173971392"/>
+        <c:crossAx val="1002707808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1364,7 +1568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1173971392"/>
+        <c:axId val="1002707808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1405,7 +1609,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="nl-NL"/>
-                  <a:t>Lengte van de oplossing</a:t>
+                  <a:t>lengte oplossing</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1471,7 +1675,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1173970304"/>
+        <c:crossAx val="1002701824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3189,16 +3393,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>929640</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1074420</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3219,20 +3423,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3249,20 +3453,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3543,10 +3747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3558,10 +3762,10 @@
     <col min="5" max="5" width="11.5546875" customWidth="1"/>
     <col min="6" max="6" width="19.77734375" customWidth="1"/>
     <col min="8" max="8" width="10.77734375" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3580,14 +3784,8 @@
       <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3607,13 +3805,16 @@
         <v>1</v>
       </c>
       <c r="H2">
+        <v>80</v>
+      </c>
+      <c r="I2">
         <v>752</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1742</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3624,19 +3825,25 @@
         <v>2</v>
       </c>
       <c r="H3">
+        <v>27</v>
+      </c>
+      <c r="I3">
         <v>145</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>547</v>
       </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3644,45 +3851,54 @@
         <v>3</v>
       </c>
       <c r="H4">
+        <v>35</v>
+      </c>
+      <c r="I4">
         <v>87</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>186</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>4</v>
       </c>
-      <c r="L4">
+      <c r="P4">
+        <v>45</v>
+      </c>
+      <c r="Q4">
         <v>1521</v>
       </c>
-      <c r="M4">
+      <c r="R4">
         <v>26983</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="G5" t="s">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1521</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>26983</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5">
+        <v>45</v>
+      </c>
+      <c r="O5" t="s">
         <v>5</v>
       </c>
-      <c r="L5">
+      <c r="Q5">
         <v>1015</v>
       </c>
-      <c r="M5">
+      <c r="R5">
         <v>55571</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -3701,23 +3917,23 @@
       <c r="G6" t="s">
         <v>5</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1015</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>55571</v>
       </c>
-      <c r="K6" t="s">
+      <c r="O6" t="s">
         <v>10</v>
       </c>
-      <c r="L6">
+      <c r="Q6">
         <v>5690</v>
       </c>
-      <c r="M6">
+      <c r="R6">
         <v>60589</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -3736,23 +3952,23 @@
       <c r="G7" t="s">
         <v>10</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>5690</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>60589</v>
       </c>
-      <c r="K7" t="s">
+      <c r="O7" t="s">
         <v>21</v>
       </c>
-      <c r="L7">
+      <c r="Q7">
         <v>4062</v>
       </c>
-      <c r="M7">
+      <c r="R7">
         <v>60895</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3762,14 +3978,14 @@
       <c r="G8" t="s">
         <v>21</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>4062</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>60895</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3780,7 +3996,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3791,7 +4007,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -3814,7 +4030,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -3831,7 +4047,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -3845,7 +4061,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -3856,12 +4072,12 @@
         <v>547</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
